--- a/twitter-queries/marktaandelen.xlsx
+++ b/twitter-queries/marktaandelen.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Consoles" sheetId="3" r:id="rId1"/>
@@ -2417,6 +2417,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -2462,6 +2463,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -2472,6 +2474,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (billion)</t>
@@ -2503,6 +2506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
@@ -2525,6 +2529,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -2558,6 +2563,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -2574,6 +2580,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -2590,6 +2597,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -2630,6 +2638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -2655,6 +2664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -2695,6 +2705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
@@ -2714,6 +2725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
@@ -2748,6 +2760,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -2775,6 +2788,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -2800,6 +2814,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -2816,6 +2831,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -2922,6 +2938,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -3121,6 +3138,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -3684,13 +3702,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3741,12 +3759,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3755,6 +3775,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3763,6 +3784,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3789,6 +3811,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3796,6 +3819,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4832,6 +4856,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4847,290 +4872,289 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="564">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="563" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5412,8 +5436,8 @@
     <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="299" builtinId="5"/>
+    <cellStyle name="Procent" xfId="299" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5741,18 +5765,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -5957,23 +5981,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" customWidth="1"/>
+    <col min="3" max="4" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -6107,7 +6131,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16">
+    <row r="5" spans="1:15" ht="17.399999999999999">
       <c r="A5" s="208" t="s">
         <v>788</v>
       </c>
@@ -6283,7 +6307,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="70"/>
     </row>
-    <row r="12" spans="1:15" ht="16">
+    <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="208" t="s">
         <v>792</v>
       </c>
@@ -6596,7 +6620,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16">
+    <row r="25" spans="1:10" ht="17.399999999999999">
       <c r="A25" s="208" t="s">
         <v>801</v>
       </c>
@@ -6666,7 +6690,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16">
+    <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="209" t="s">
         <v>803</v>
       </c>
@@ -6805,7 +6829,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16">
+    <row r="38" spans="1:8" ht="17.399999999999999">
       <c r="A38" s="57" t="s">
         <v>788</v>
       </c>
@@ -7029,7 +7053,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" hidden="1">
+    <row r="45" spans="1:8" ht="17.399999999999999" hidden="1">
       <c r="A45" s="57" t="s">
         <v>792</v>
       </c>
@@ -7439,13 +7463,13 @@
       <c r="A59" t="s">
         <v>1090</v>
       </c>
-      <c r="B59" s="253">
+      <c r="B59" s="248">
         <v>967.55399999999997</v>
       </c>
-      <c r="C59" s="253">
+      <c r="C59" s="248">
         <v>1057.2159999999999</v>
       </c>
-      <c r="D59" s="253">
+      <c r="D59" s="248">
         <v>1054.2080000000001</v>
       </c>
     </row>
@@ -7461,20 +7485,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" customWidth="1"/>
+    <col min="14" max="14" width="51.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:14" ht="17.399999999999999">
       <c r="A1" s="55" t="s">
         <v>554</v>
       </c>
@@ -7747,17 +7771,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8046,14 +8070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
@@ -8649,17 +8673,17 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8945,20 +8969,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="12.69921875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9769,16 +9793,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="56.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9947,7 +9971,7 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16">
+    <row r="12" spans="1:14" ht="17.399999999999999">
       <c r="A12" s="149" t="s">
         <v>908</v>
       </c>
@@ -10222,16 +10246,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10647,16 +10671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10741,18 +10765,18 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="7" width="9.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="13" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" customWidth="1"/>
+    <col min="2" max="7" width="9.19921875" hidden="1" customWidth="1"/>
+    <col min="8" max="13" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -11241,23 +11265,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
     <col min="9" max="9" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:9" ht="17.399999999999999">
       <c r="A1" s="55" t="s">
         <v>773</v>
       </c>
@@ -11463,7 +11487,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" hidden="1">
+    <row r="8" spans="1:9" ht="17.399999999999999" hidden="1">
       <c r="A8" s="36" t="s">
         <v>777</v>
       </c>
@@ -11572,7 +11596,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" hidden="1">
+    <row r="12" spans="1:9" ht="17.399999999999999" hidden="1">
       <c r="A12" s="36" t="s">
         <v>778</v>
       </c>
@@ -11645,7 +11669,7 @@
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="16" hidden="1">
+    <row r="15" spans="1:9" ht="17.399999999999999" hidden="1">
       <c r="A15" s="36" t="s">
         <v>779</v>
       </c>
@@ -11783,18 +11807,18 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="119.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="119.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14980,28 +15004,28 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -15688,19 +15712,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -15854,20 +15878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16">
+    <row r="1" spans="1:10" ht="17.399999999999999">
       <c r="A1" s="212" t="s">
         <v>754</v>
       </c>
@@ -16206,7 +16230,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16">
+    <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="114" t="s">
         <v>754</v>
       </c>
@@ -16427,16 +16451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16656,23 +16680,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16">
+    <row r="1" spans="1:15" ht="17.399999999999999">
       <c r="A1" s="55" t="s">
         <v>745</v>
       </c>
@@ -16952,7 +16976,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16">
+    <row r="10" spans="1:15" ht="17.399999999999999">
       <c r="A10" s="57" t="s">
         <v>811</v>
       </c>
@@ -17202,19 +17226,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -17772,17 +17796,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18253,25 +18277,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
-    <col min="5" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
-    <col min="14" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" style="2" customWidth="1"/>
+    <col min="5" max="12" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.796875" customWidth="1"/>
+    <col min="14" max="19" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="16">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="208" t="s">
         <v>347</v>
       </c>
@@ -18839,40 +18863,40 @@
         <v>1.1827939999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16">
+    <row r="12" spans="1:19" ht="17.399999999999999">
       <c r="A12" s="208" t="s">
         <v>771</v>
       </c>
-      <c r="B12" s="249">
+      <c r="B12" s="250">
         <v>2.5260310000000001</v>
       </c>
-      <c r="C12" s="250"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="248">
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="249">
         <v>2.6282049999999999</v>
       </c>
-      <c r="F12" s="248"/>
-      <c r="G12" s="248"/>
-      <c r="H12" s="248">
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249">
         <v>2.597658</v>
       </c>
-      <c r="I12" s="248"/>
-      <c r="J12" s="251"/>
-      <c r="K12" s="252">
+      <c r="I12" s="249"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="253">
         <v>2.191468</v>
       </c>
-      <c r="L12" s="248"/>
-      <c r="M12" s="248"/>
-      <c r="N12" s="248">
+      <c r="L12" s="249"/>
+      <c r="M12" s="249"/>
+      <c r="N12" s="249">
         <v>2.2795999999999998</v>
       </c>
-      <c r="O12" s="248"/>
-      <c r="P12" s="248"/>
-      <c r="Q12" s="248">
+      <c r="O12" s="249"/>
+      <c r="P12" s="249"/>
+      <c r="Q12" s="249">
         <v>2.2356829999999999</v>
       </c>
-      <c r="R12" s="248"/>
-      <c r="S12" s="251"/>
+      <c r="R12" s="249"/>
+      <c r="S12" s="252"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="209" t="s">
@@ -18971,7 +18995,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16">
+    <row r="22" spans="1:15" ht="17.399999999999999">
       <c r="A22" s="73" t="s">
         <v>347</v>
       </c>
@@ -19499,7 +19523,7 @@
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" ht="16">
+    <row r="32" spans="1:15" ht="17.399999999999999">
       <c r="A32" s="57" t="s">
         <v>771</v>
       </c>

--- a/twitter-queries/marktaandelen.xlsx
+++ b/twitter-queries/marktaandelen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Consoles" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Hashtags" sheetId="2" r:id="rId20"/>
     <sheet name="Sample" sheetId="24" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -17799,7 +17799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -18280,8 +18280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="E20" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/twitter-queries/marktaandelen.xlsx
+++ b/twitter-queries/marktaandelen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Consoles" sheetId="3" r:id="rId1"/>
@@ -5984,8 +5984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -18280,7 +18280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" workbookViewId="0">
+    <sheetView topLeftCell="E20" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>

--- a/twitter-queries/marktaandelen.xlsx
+++ b/twitter-queries/marktaandelen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Consoles" sheetId="3" r:id="rId1"/>
@@ -5984,7 +5984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
@@ -7488,8 +7488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/twitter-queries/marktaandelen.xlsx
+++ b/twitter-queries/marktaandelen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Consoles" sheetId="3" r:id="rId1"/>
@@ -7488,7 +7488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -7774,8 +7774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/twitter-queries/marktaandelen.xlsx
+++ b/twitter-queries/marktaandelen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Consoles" sheetId="3" r:id="rId1"/>
@@ -7774,7 +7774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -8074,7 +8074,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8676,8 +8676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/twitter-queries/marktaandelen.xlsx
+++ b/twitter-queries/marktaandelen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Consoles" sheetId="3" r:id="rId1"/>
@@ -8676,8 +8676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8972,7 +8972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>

--- a/twitter-queries/marktaandelen.xlsx
+++ b/twitter-queries/marktaandelen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Consoles" sheetId="3" r:id="rId1"/>
@@ -8972,8 +8972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9796,8 +9796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/twitter-queries/marktaandelen.xlsx
+++ b/twitter-queries/marktaandelen.xlsx
@@ -9797,7 +9797,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
